--- a/biology/Médecine/1482_en_santé_et_médecine/1482_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1482_en_santé_et_médecine/1482_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1482_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1482_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1482 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1482_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1482_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de la bibliothèque de l'université de Copenhague qui, avec la bibliothèque Classen et la Bibliothèque royale du Danemark, est à l'origine de l'actuelle bibliothèque des sciences naturelles et médicales du Danemark (da), située dans le quartier de Nørrebro, à Copenhague[1].
-Fondation de l'hôpital des pestiférés par le Grand Conseil de Genève[2].
-Les baigneurs et barbiers de Strasbourg sont exclus du Grand Conseil, et leur corporation est dissoute[3].
-Le pape Sixte IV autorise l'université de Tübingen à pratiquer des autopsies[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de la bibliothèque de l'université de Copenhague qui, avec la bibliothèque Classen et la Bibliothèque royale du Danemark, est à l'origine de l'actuelle bibliothèque des sciences naturelles et médicales du Danemark (da), située dans le quartier de Nørrebro, à Copenhague.
+Fondation de l'hôpital des pestiférés par le Grand Conseil de Genève.
+Les baigneurs et barbiers de Strasbourg sont exclus du Grand Conseil, et leur corporation est dissoute.
+Le pape Sixte IV autorise l'université de Tübingen à pratiquer des autopsies.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1482_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1482_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, à Venise, du Colliget, traduction latine du Kitab al-kulliyat fil-tibb, traité de médecine d'Averroès (1126-1198[5]).
-Première édition, à Lyon, chez Matthias Huss, du Propriétaire en français, traduction par Jean Corbichon, revue par Pierre Ferget, du Liber de proprietatibus rerum de Barthélemy l'Anglais († 1272[6]).
-1478-1482 : Amirdovlat d'Amasée (1415-1496) compose son Inutile aux ignorants, pharmacopée de plus de trois mille sept cents médicaments, chacun décrit en cinq, parfois en sept langues : arménien, grec, latin, arabe, persan, turc et français[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, à Venise, du Colliget, traduction latine du Kitab al-kulliyat fil-tibb, traité de médecine d'Averroès (1126-1198).
+Première édition, à Lyon, chez Matthias Huss, du Propriétaire en français, traduction par Jean Corbichon, revue par Pierre Ferget, du Liber de proprietatibus rerum de Barthélemy l'Anglais († 1272).
+1478-1482 : Amirdovlat d'Amasée (1415-1496) compose son Inutile aux ignorants, pharmacopée de plus de trois mille sept cents médicaments, chacun décrit en cinq, parfois en sept langues : arménien, grec, latin, arabe, persan, turc et français.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1482_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1482_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bernardino de Laredo (mort en 1540), théologien et médecin castillan, surtout connu pour son traité sur la quiétude, Subida del Monte Sion (« Ascension du mont Sion[8] »).
-Ludovico Boccadiferro (mort en 1545), professeur italien de philosophie et de médecine[9].
-Louis de Bourges (mort en 1556), médecin du roi de France Louis XII et Premier médecin des rois  François Ier et Henri II[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bernardino de Laredo (mort en 1540), théologien et médecin castillan, surtout connu pour son traité sur la quiétude, Subida del Monte Sion (« Ascension du mont Sion »).
+Ludovico Boccadiferro (mort en 1545), professeur italien de philosophie et de médecine.
+Louis de Bourges (mort en 1556), médecin du roi de France Louis XII et Premier médecin des rois  François Ier et Henri II.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1482_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1482_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paolo Toscanelli (né en 1397), astronome, cartographe et médecin florentin, surtout connu pour avoir établi une carte de la route des Indes orientales par l'océan Atlantique.
-Jean Malek (né à une date inconnue), apothicaire à Mende en Gévaudan, actif pendant la peste de 1460, mort « lors d'une nouvelle apparition du fléau[11] ».</t>
+Jean Malek (né à une date inconnue), apothicaire à Mende en Gévaudan, actif pendant la peste de 1460, mort « lors d'une nouvelle apparition du fléau ».</t>
         </is>
       </c>
     </row>
